--- a/label.xlsx
+++ b/label.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t xml:space="preserve">其他</t>
   </si>
@@ -181,6 +181,42 @@
     <t xml:space="preserve">基础理论</t>
   </si>
   <si>
+    <t xml:space="preserve">数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半监督</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迁移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联邦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成对抗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">驾驶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分布式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沉浸式</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -225,52 +261,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">点击率预测</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词法分析</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定义问答</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超像素问题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多机器人定位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">智能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">代码重构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词分割</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">版面分析</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词干提取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词嵌入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词性标注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词义消歧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">答案提取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询理解</t>
+    <t xml:space="preserve">安全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">量子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">运筹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优化</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,6 +332,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -376,7 +388,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +407,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -422,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG8" activeCellId="0" sqref="AG8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -591,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>14</v>
@@ -606,43 +630,43 @@
         <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>31</v>
@@ -651,13 +675,13 @@
         <v>32</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>36</v>
@@ -669,69 +693,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="S3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AD3" s="9"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="8"/>
+      <c r="AI3" s="7"/>
+      <c r="AM3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="5" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="S4" s="9"/>
+      <c r="W4" s="7"/>
+      <c r="Z4" s="9"/>
+      <c r="AD4" s="4"/>
+      <c r="AI4" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
